--- a/Base de Dados Inspeções.xlsx
+++ b/Base de Dados Inspeções.xlsx
@@ -1,66 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26821"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{702A043B-0BFC-481C-893F-88EDED08BC30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Inspeções" sheetId="1" r:id="rId1"/>
+    <sheet name="Inspeções" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Data de Inspeção</t>
-  </si>
-  <si>
-    <t>Empresa</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
-    <t>Setor</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -393,33 +419,2099 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="17.140625" customWidth="1"/>
+    <col width="17.140625" customWidth="1" min="1" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Data de Inspeção</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Empresa</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Departamento</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Setor</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Sala3</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Sala 4</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Sala 5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>02/02/2022</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>02/02/2022</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>02/02/2022</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>02/02/2022</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>02/02/2022</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>03/02/2022</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Aréa descarga</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>03/02/2022</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03/02/2022</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>03/02/2022</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>03/02/2022</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Área carga</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>03/02/2022</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>03/02/2022</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Empresa A</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Sala3</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Sala 4</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>07/07/2022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Sala 5</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>08/07/2022</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08/07/2022</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>08/07/2022</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>08/07/2022</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>08/07/2022</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>09/07/2022</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Suprimentos</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09/07/2022</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Suprimentos</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>09/07/2022</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Suprimentos</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>09/07/2022</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Suprimentos</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Auditório</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>09/07/2022</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Suprimentos</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>09/07/2022</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Empresa D</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Suprimentos</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Sala3</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Sala 4</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>01/03/2022</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Sala 5</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>02/04/2022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>02/04/2022</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>02/04/2022</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>02/04/2022</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>02/04/2022</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>03/04/2022</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Aréa descarga</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>03/04/2022</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>03/04/2022</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>03/04/2022</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>03/04/2022</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Área carga</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>03/04/2022</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>03/04/2022</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Galpão I</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Sala 4</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Sala 5</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Sala 6</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Auditório</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>05/04/2022</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Empresa B</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Financeiro</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Reprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>05/06/2022</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>05/06/2022</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>05/06/2022</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sala3</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>05/06/2022</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Sala 4</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>05/06/2022</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>05/06/2022</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>05/06/2022</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Recursos Humanos</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Sala 5</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>06/06/2022</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Sala 1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>06/06/2022</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Sala 2</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>06/06/2022</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Sala 3</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>06/06/2022</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Banheiro</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>06/06/2022</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Empresa C</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Tecnologia da Informação</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Refeitório</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
       </c>
     </row>
   </sheetData>
